--- a/docs/U22_2016_cloud_application.xlsx
+++ b/docs/U22_2016_cloud_application.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouhei\Desktop\学校で使うものとか\U-22\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27022"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="7095"/>
+    <workbookView xWindow="3760" yWindow="0" windowWidth="23280" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="クラウド申込" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラウド申込!$A$1:$K$41</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1132,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,10 +1193,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
@@ -1205,97 +1277,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,8 +1341,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5594351" y="9575800"/>
-          <a:ext cx="996949" cy="854075"/>
+          <a:off x="5575301" y="9528175"/>
+          <a:ext cx="996949" cy="1031875"/>
           <a:chOff x="5210175" y="9144000"/>
           <a:chExt cx="990600" cy="1047750"/>
         </a:xfrm>
@@ -1462,8 +1465,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4622800" y="9575800"/>
-          <a:ext cx="971551" cy="857250"/>
+          <a:off x="4600575" y="9528175"/>
+          <a:ext cx="974726" cy="1035050"/>
           <a:chOff x="5210175" y="9144000"/>
           <a:chExt cx="990600" cy="1047750"/>
         </a:xfrm>
@@ -1586,8 +1589,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3676650" y="9569450"/>
-          <a:ext cx="942975" cy="857250"/>
+          <a:off x="3654425" y="9521825"/>
+          <a:ext cx="942975" cy="1035050"/>
           <a:chOff x="5210175" y="9144000"/>
           <a:chExt cx="990600" cy="1047750"/>
         </a:xfrm>
@@ -1736,7 +1739,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1771,7 +1774,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1982,57 +1985,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:K33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="4.875" customWidth="1"/>
-    <col min="5" max="5" width="7.875" customWidth="1"/>
-    <col min="6" max="6" width="3.75" customWidth="1"/>
-    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-    </row>
-    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" ht="3.75" customHeight="1"/>
+    <row r="4" spans="1:11" ht="21" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2050,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="21" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -2062,30 +2065,30 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="6" customHeight="1"/>
+    <row r="7" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="53">
-        <v>42551</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="54">
+        <v>42558</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
@@ -2110,84 +2113,84 @@
       <c r="J9" s="15"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-    </row>
-    <row r="11" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="47" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-    </row>
-    <row r="12" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="47" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" ht="47.25" customHeight="1" thickBot="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-    </row>
-    <row r="15" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:11" ht="9.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2200,7 +2203,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
@@ -2215,39 +2218,39 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:11" ht="21" customHeight="1">
+      <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-    </row>
-    <row r="18" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" ht="42" customHeight="1" thickBot="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
-    </row>
-    <row r="19" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" ht="24" customHeight="1" thickBot="1">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
@@ -2282,25 +2285,25 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="37" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" ht="21" customHeight="1">
+      <c r="A21" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2328,203 +2331,203 @@
       <c r="J21" s="4"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39" t="s">
+    <row r="22" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-    </row>
-    <row r="23" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:11" ht="10.5" customHeight="1"/>
+    <row r="24" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="30" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="41"/>
-    </row>
-    <row r="26" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+    </row>
+    <row r="26" spans="1:11" ht="20.25" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="20" t="s">
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="29"/>
-    </row>
-    <row r="27" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+    </row>
+    <row r="27" spans="1:11" ht="46.5" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="33" t="s">
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
       <c r="K27" s="42"/>
     </row>
-    <row r="28" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="20.25" customHeight="1">
       <c r="A28" s="17"/>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="20" t="s">
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="29"/>
-    </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
+    </row>
+    <row r="29" spans="1:11" ht="21" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="20" t="s">
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="29"/>
-    </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
+    </row>
+    <row r="30" spans="1:11" ht="21" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="20" t="s">
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="29"/>
-    </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
+    </row>
+    <row r="31" spans="1:11" ht="21" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="20" t="s">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="29"/>
-    </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
+    </row>
+    <row r="32" spans="1:11" ht="21" customHeight="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="20" t="s">
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="29"/>
-    </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
+    </row>
+    <row r="33" spans="1:11" ht="21" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="20" t="s">
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="29"/>
-    </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
+    </row>
+    <row r="34" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A34" s="18"/>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="26" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28"/>
-    </row>
-    <row r="35" spans="1:11" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="50"/>
+    </row>
+    <row r="35" spans="1:11" ht="9" customHeight="1" thickBot="1"/>
+    <row r="36" spans="1:11" ht="6" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2537,7 +2540,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -2552,7 +2555,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2565,7 +2568,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2578,7 +2581,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2591,7 +2594,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2609,25 +2612,6 @@
     <protectedRange sqref="B8:K8 B9 D9 B10:K12 B14:K14 B17:K18 C19 E19 G19 J19 B21 D21 F21 B22:K22 B20:K20 A26:A34" name="範囲1"/>
   </protectedRanges>
   <mergeCells count="35">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K12"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:K26"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B20:K20"/>
     <mergeCell ref="G34:K34"/>
@@ -2644,13 +2628,37 @@
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:K28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>